--- a/result.xlsx
+++ b/result.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="2-2023" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="3-2023" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,39 +426,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X4"/>
+  <dimension ref="A1:X5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="36" customWidth="1" min="1" max="1"/>
-    <col width="18" customWidth="1" min="2" max="2"/>
-    <col width="12" customWidth="1" min="3" max="3"/>
-    <col width="19" customWidth="1" min="4" max="4"/>
-    <col width="85" customWidth="1" min="5" max="5"/>
-    <col width="16" customWidth="1" min="6" max="6"/>
-    <col width="21" customWidth="1" min="7" max="7"/>
-    <col width="13" customWidth="1" min="8" max="8"/>
-    <col width="24" customWidth="1" min="9" max="9"/>
-    <col width="30" customWidth="1" min="10" max="10"/>
-    <col width="13" customWidth="1" min="11" max="11"/>
-    <col width="32" customWidth="1" min="12" max="12"/>
-    <col width="18" customWidth="1" min="13" max="13"/>
-    <col width="12" customWidth="1" min="14" max="14"/>
-    <col width="19" customWidth="1" min="15" max="15"/>
-    <col width="85" customWidth="1" min="16" max="16"/>
-    <col width="16" customWidth="1" min="17" max="17"/>
-    <col width="21" customWidth="1" min="18" max="18"/>
-    <col width="13" customWidth="1" min="19" max="19"/>
-    <col width="24" customWidth="1" min="20" max="20"/>
-    <col width="30" customWidth="1" min="21" max="21"/>
-    <col width="13" customWidth="1" min="22" max="22"/>
-    <col width="32" customWidth="1" min="23" max="23"/>
-    <col width="9" customWidth="1" min="24" max="24"/>
-  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -584,21 +559,21 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2ts5tqc56brj</t>
+          <t>1ccqcek54skc</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MbBizon - WWApps</t>
+          <t>MbBlaze - WWApps</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2023-02-20</t>
+          <t>2023-02-18</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>351</v>
+        <v>410</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -611,7 +586,7 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>351</v>
+        <v>410</v>
       </c>
       <c r="H2" t="n">
         <v>1</v>
@@ -630,16 +605,16 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>MbBizon - WWApps</t>
+          <t>MbBlaze - WWApps</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>2023-02-20</t>
+          <t>2023-02-18</t>
         </is>
       </c>
       <c r="O2" t="n">
-        <v>351</v>
+        <v>410</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
@@ -652,7 +627,7 @@
         </is>
       </c>
       <c r="R2" t="n">
-        <v>351</v>
+        <v>410</v>
       </c>
       <c r="S2" t="n">
         <v>1</v>
@@ -661,31 +636,646 @@
         <v>1</v>
       </c>
       <c r="U2" t="n">
-        <v>6.5</v>
+        <v>10</v>
       </c>
       <c r="V2" t="n">
-        <v>6.5</v>
+        <v>10</v>
       </c>
       <c r="W2" t="n">
-        <v>6.5</v>
+        <v>10</v>
       </c>
       <c r="X2" t="n">
-        <v>6.5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Є у першому файлі, немає в другому</t>
-        </is>
+          <t>es3dp45220h</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>MbVanokk - WWApps</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>2023-02-13</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>292</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>ZM Gal Sport Casino New Reg | CPA 9$ | mindep 1ZMW/bl 1$ | cap 1000/total [All]</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>WWApps</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>292</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>MbVanokk - WWApps</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>2023-02-13</t>
+        </is>
+      </c>
+      <c r="O3" t="n">
+        <v>292</v>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>ZM Gal Sport Casino New Reg | CPA 9$ | mindep 1ZMW/bl 1$ | cap 1000/total [All]</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>WWApps</t>
+        </is>
+      </c>
+      <c r="R3" t="n">
+        <v>292</v>
+      </c>
+      <c r="S3" t="n">
+        <v>1</v>
+      </c>
+      <c r="T3" t="n">
+        <v>1</v>
+      </c>
+      <c r="U3" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="V3" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="W3" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="X3" t="n">
+        <v>6.5</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>Є у першому файлі, немає в другому</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="inlineStr"/>
+      <c r="O4" t="inlineStr"/>
+      <c r="P4" t="inlineStr"/>
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr"/>
+      <c r="S4" t="inlineStr"/>
+      <c r="T4" t="inlineStr"/>
+      <c r="U4" t="inlineStr"/>
+      <c r="V4" t="inlineStr"/>
+      <c r="W4" t="inlineStr"/>
+      <c r="X4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
           <t>Є у другому файлі, немає в першому</t>
         </is>
       </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="inlineStr"/>
+      <c r="O5" t="inlineStr"/>
+      <c r="P5" t="inlineStr"/>
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr"/>
+      <c r="S5" t="inlineStr"/>
+      <c r="T5" t="inlineStr"/>
+      <c r="U5" t="inlineStr"/>
+      <c r="V5" t="inlineStr"/>
+      <c r="W5" t="inlineStr"/>
+      <c r="X5" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:X6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>SubId</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Кампания_file1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>День_file1</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>ID кампании_file1</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Оффер_file1</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Источник_file1</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>ID кампании.1_file1</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Клики_file1</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Уник. (кампания)_file1</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Доход (подтвержденный)_file1</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Доход_file1</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Прибыль (подтвержденная)_file1</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Кампания_file2</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>День_file2</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>ID кампании_file2</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Оффер_file2</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>Источник_file2</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>ID кампании.1_file2</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>Клики_file2</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>Уник. (кампания)_file2</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>Доход (подтвержденный)_file2</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>Доход_file2</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>Прибыль (подтвержденная)_file2</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>Різниця</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>1dqh7445d9ad</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>MbBizon - TRIDENT apps</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>2023-03-06</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>354</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>AU Pokie Surf Reg | CPA 200$ | mindep 10 EUR | cap 30/total [SS]</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>TRIDENT APPS</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>354</v>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I2" t="n">
+        <v>1</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>MbBizon - TRIDENT apps</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>2023-03-06</t>
+        </is>
+      </c>
+      <c r="O2" t="n">
+        <v>354</v>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>AU Pokie Surf Reg | CPA 200$ | mindep 10 EUR | cap 30/total [SS]</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>TRIDENT APPS</t>
+        </is>
+      </c>
+      <c r="R2" t="n">
+        <v>354</v>
+      </c>
+      <c r="S2" t="n">
+        <v>1</v>
+      </c>
+      <c r="T2" t="n">
+        <v>1</v>
+      </c>
+      <c r="U2" t="n">
+        <v>180</v>
+      </c>
+      <c r="V2" t="n">
+        <v>180</v>
+      </c>
+      <c r="W2" t="n">
+        <v>180</v>
+      </c>
+      <c r="X2" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>3tciuf45feq3</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>MbFedir - WWApps</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>2023-03-09</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>368</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>ZM Gal Sport Casino New Reg | CPA 9$ | mindep 1ZMW/bl 1$ | cap 1000/total [All]</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>WWApps</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>368</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>MbFedir - WWApps</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>2023-03-09</t>
+        </is>
+      </c>
+      <c r="O3" t="n">
+        <v>368</v>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>ZM Gal Sport Casino New Reg | CPA 9$ | mindep 1ZMW/bl 1$ | cap 1000/total [All]</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>WWApps</t>
+        </is>
+      </c>
+      <c r="R3" t="n">
+        <v>368</v>
+      </c>
+      <c r="S3" t="n">
+        <v>1</v>
+      </c>
+      <c r="T3" t="n">
+        <v>1</v>
+      </c>
+      <c r="U3" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="V3" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="W3" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="X3" t="n">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>o25vof62707</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>MbVanokk - WWApps</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>2023-03-30</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>292</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>ZM Gal Sport Casino New Reg | CPA 9$ | mindep 1ZMW/bl 1$ | cap 1000/total [All]</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>WWApps</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>292</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>MbVanokk - WWApps</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>2023-03-30</t>
+        </is>
+      </c>
+      <c r="O4" t="n">
+        <v>292</v>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>ZM Gal Sport Casino New Reg | CPA 9$ | mindep 1ZMW/bl 1$ | cap 1000/total [All]</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>WWApps</t>
+        </is>
+      </c>
+      <c r="R4" t="n">
+        <v>292</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1</v>
+      </c>
+      <c r="T4" t="n">
+        <v>1</v>
+      </c>
+      <c r="U4" t="n">
+        <v>9</v>
+      </c>
+      <c r="V4" t="n">
+        <v>9</v>
+      </c>
+      <c r="W4" t="n">
+        <v>9</v>
+      </c>
+      <c r="X4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Є у першому файлі, немає в другому</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="inlineStr"/>
+      <c r="O5" t="inlineStr"/>
+      <c r="P5" t="inlineStr"/>
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr"/>
+      <c r="S5" t="inlineStr"/>
+      <c r="T5" t="inlineStr"/>
+      <c r="U5" t="inlineStr"/>
+      <c r="V5" t="inlineStr"/>
+      <c r="W5" t="inlineStr"/>
+      <c r="X5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Є у другому файлі, немає в першому</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="inlineStr"/>
+      <c r="O6" t="inlineStr"/>
+      <c r="P6" t="inlineStr"/>
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr"/>
+      <c r="S6" t="inlineStr"/>
+      <c r="T6" t="inlineStr"/>
+      <c r="U6" t="inlineStr"/>
+      <c r="V6" t="inlineStr"/>
+      <c r="W6" t="inlineStr"/>
+      <c r="X6" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
